--- a/TCS_NEWUI_SecondaryButtons.xlsx
+++ b/TCS_NEWUI_SecondaryButtons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\Completed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC_Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63136008-DA0A-44FF-9E65-7AB1CB748D6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDC48CB-4E2D-481C-90B9-65403E14845F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="5" r:id="rId1"/>
@@ -47,19 +47,11 @@
     <definedName name="test">#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="156">
   <si>
     <t>Test Case Result Modules-Wise</t>
   </si>
@@ -583,6 +575,39 @@
   </si>
   <si>
     <t>As a SMART User, I want to have the ability to understand Secondary action buttons and their functionality</t>
+  </si>
+  <si>
+    <t>SMRT-7800</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t>Verify Reset button tooltip should be Disappeared after click on reset button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on search options </t>
+  </si>
+  <si>
+    <t>Search options window should be open</t>
+  </si>
+  <si>
+    <t>Date : Last Year</t>
+  </si>
+  <si>
+    <t>Make changes in any field &amp; click on apply button</t>
+  </si>
+  <si>
+    <t>1. Date should be achanged to last year
+2. Last year date tag should be displayed
+3. Reset button should be Enabled</t>
+  </si>
+  <si>
+    <t>Hover &amp; Click on rest button</t>
+  </si>
+  <si>
+    <t>1. On hover Reset search tool tip should display
+2. Click on Reset button, button should disabled and tolltip should be removed</t>
   </si>
 </sst>
 </file>
@@ -2255,6 +2280,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="30" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="30" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="30" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2263,24 +2306,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="30" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="30" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="30" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="21" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2768,7 +2793,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3270,7 +3295,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4253,7 +4278,7 @@
       </c>
       <c r="B8" s="12">
         <f>'Redesign - Secondary buttons'!G7</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="12">
         <f>'Redesign - Secondary buttons'!G8</f>
@@ -4269,7 +4294,7 @@
       </c>
       <c r="F8" s="12">
         <f>SUM(B8:E8)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="17">
         <f>(B8+C8+D8)/(F8)</f>
@@ -4291,7 +4316,7 @@
       </c>
       <c r="B10" s="18">
         <f>SUM(B8:B9)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="18">
         <f>SUM(C8:C9)</f>
@@ -4307,7 +4332,7 @@
       </c>
       <c r="F10" s="18">
         <f>SUM(F8:F9)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="14">
         <f>SUM(G8:G8)</f>
@@ -4346,8 +4371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4355,7 +4380,7 @@
     <col min="1" max="1" width="45.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" style="8" customWidth="1"/>
     <col min="3" max="3" width="127.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" style="3" customWidth="1"/>
     <col min="5" max="256" width="9" style="3"/>
     <col min="257" max="257" width="71.85546875" style="3" customWidth="1"/>
     <col min="258" max="258" width="18.5703125" style="3" customWidth="1"/>
@@ -4739,8 +4764,15 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="76"/>
-      <c r="B13" s="19"/>
-      <c r="D13" s="62"/>
+      <c r="B13" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>146</v>
+      </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5">
@@ -5138,10 +5170,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14479089-7CD9-4D53-9264-25F770CD02CB}">
-  <dimension ref="A1:H969"/>
+  <dimension ref="A1:H968"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A105" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -5888,8 +5920,8 @@
         <v>4</v>
       </c>
       <c r="G7" s="33">
-        <f>COUNTIF(G11:G1095,"Pass")</f>
-        <v>11</v>
+        <f>COUNTIF(G11:G1094,"Pass")</f>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1">
@@ -5904,7 +5936,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="33">
-        <f>COUNTIF(G12:G1096,"Fail")</f>
+        <f>COUNTIF(G12:G1095,"Fail")</f>
         <v>0</v>
       </c>
     </row>
@@ -5922,7 +5954,7 @@
         <v>20</v>
       </c>
       <c r="G9" s="33">
-        <f>COUNTIF(G13:G1097,"Blocked")</f>
+        <f>COUNTIF(G13:G1096,"Blocked")</f>
         <v>0</v>
       </c>
     </row>
@@ -5938,7 +5970,7 @@
         <v>19</v>
       </c>
       <c r="G10" s="33">
-        <f>COUNTIF(G14:G1098,"Not Executed")</f>
+        <f>COUNTIF(G14:G1097,"Not Executed")</f>
         <v>0</v>
       </c>
     </row>
@@ -5949,7 +5981,7 @@
       </c>
       <c r="C11" s="24">
         <f>G7</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11"/>
       <c r="E11" s="22"/>
@@ -6028,16 +6060,16 @@
       <c r="A18" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="84" t="s">
+      <c r="C18" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="84" t="s">
+      <c r="D18" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="85" t="s">
+      <c r="E18" s="79" t="s">
         <v>66</v>
       </c>
       <c r="F18" s="47" t="s">
@@ -6124,27 +6156,27 @@
       <c r="A23" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="79"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="85"/>
     </row>
     <row r="24" spans="1:7" customFormat="1">
       <c r="A24" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="84" t="s">
+      <c r="C24" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="84" t="s">
+      <c r="D24" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="85" t="s">
+      <c r="E24" s="79" t="s">
         <v>58</v>
       </c>
       <c r="F24" s="47" t="s">
@@ -6229,27 +6261,27 @@
       <c r="A29" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="77"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="79"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="85"/>
     </row>
     <row r="30" spans="1:7" customFormat="1">
       <c r="A30" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="83" t="s">
+      <c r="B30" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="84" t="s">
+      <c r="C30" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="84" t="s">
+      <c r="D30" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="85" t="s">
+      <c r="E30" s="79" t="s">
         <v>67</v>
       </c>
       <c r="F30" s="47" t="s">
@@ -6438,27 +6470,27 @@
       <c r="A41" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="77"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="79"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="85"/>
     </row>
     <row r="42" spans="1:7" customFormat="1">
       <c r="A42" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="83" t="s">
+      <c r="B42" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="84" t="s">
+      <c r="C42" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="84" t="s">
+      <c r="D42" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="85" t="s">
+      <c r="E42" s="79" t="s">
         <v>57</v>
       </c>
       <c r="F42" s="47" t="s">
@@ -6560,27 +6592,27 @@
       <c r="A48" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="77"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="79"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="85"/>
     </row>
     <row r="49" spans="1:7" customFormat="1">
       <c r="A49" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="B49" s="83" t="s">
+      <c r="B49" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="84" t="s">
+      <c r="C49" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="84" t="s">
+      <c r="D49" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="E49" s="85" t="s">
+      <c r="E49" s="79" t="s">
         <v>59</v>
       </c>
       <c r="F49" s="47" t="s">
@@ -6699,27 +6731,27 @@
       <c r="A56" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="77"/>
-      <c r="C56" s="78"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="79"/>
+      <c r="B56" s="83"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="85"/>
     </row>
     <row r="57" spans="1:7" customFormat="1">
       <c r="A57" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="B57" s="83" t="s">
+      <c r="B57" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="84" t="s">
+      <c r="C57" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="84" t="s">
+      <c r="D57" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="E57" s="85" t="s">
+      <c r="E57" s="79" t="s">
         <v>55</v>
       </c>
       <c r="F57" s="47" t="s">
@@ -6855,27 +6887,27 @@
       <c r="A65" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="77"/>
-      <c r="C65" s="78"/>
-      <c r="D65" s="78"/>
-      <c r="E65" s="78"/>
-      <c r="F65" s="78"/>
-      <c r="G65" s="79"/>
+      <c r="B65" s="83"/>
+      <c r="C65" s="84"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="84"/>
+      <c r="F65" s="84"/>
+      <c r="G65" s="85"/>
     </row>
     <row r="66" spans="1:7" customFormat="1">
       <c r="A66" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="83" t="s">
+      <c r="B66" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="C66" s="84" t="s">
+      <c r="C66" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="D66" s="84" t="s">
+      <c r="D66" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="E66" s="85" t="s">
+      <c r="E66" s="79" t="s">
         <v>77</v>
       </c>
       <c r="F66" s="47" t="s">
@@ -6960,27 +6992,27 @@
       <c r="A71" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="B71" s="77"/>
-      <c r="C71" s="78"/>
-      <c r="D71" s="78"/>
-      <c r="E71" s="78"/>
-      <c r="F71" s="78"/>
-      <c r="G71" s="79"/>
+      <c r="B71" s="83"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="84"/>
+      <c r="F71" s="84"/>
+      <c r="G71" s="85"/>
     </row>
     <row r="72" spans="1:7" customFormat="1">
       <c r="A72" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="B72" s="83" t="s">
+      <c r="B72" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="C72" s="84" t="s">
+      <c r="C72" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="D72" s="84" t="s">
+      <c r="D72" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="E72" s="85" t="s">
+      <c r="E72" s="79" t="s">
         <v>56</v>
       </c>
       <c r="F72" s="47" t="s">
@@ -7099,27 +7131,27 @@
       <c r="A79" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="B79" s="77"/>
-      <c r="C79" s="78"/>
-      <c r="D79" s="78"/>
-      <c r="E79" s="78"/>
-      <c r="F79" s="78"/>
-      <c r="G79" s="79"/>
+      <c r="B79" s="83"/>
+      <c r="C79" s="84"/>
+      <c r="D79" s="84"/>
+      <c r="E79" s="84"/>
+      <c r="F79" s="84"/>
+      <c r="G79" s="85"/>
     </row>
     <row r="80" spans="1:7" customFormat="1">
       <c r="A80" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="B80" s="83" t="s">
+      <c r="B80" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="84" t="s">
+      <c r="C80" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="D80" s="84" t="s">
+      <c r="D80" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="E80" s="85" t="s">
+      <c r="E80" s="79" t="s">
         <v>62</v>
       </c>
       <c r="F80" s="47" t="s">
@@ -7238,27 +7270,27 @@
       <c r="A87" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="B87" s="77"/>
-      <c r="C87" s="78"/>
-      <c r="D87" s="78"/>
-      <c r="E87" s="78"/>
-      <c r="F87" s="78"/>
-      <c r="G87" s="79"/>
+      <c r="B87" s="83"/>
+      <c r="C87" s="84"/>
+      <c r="D87" s="84"/>
+      <c r="E87" s="84"/>
+      <c r="F87" s="84"/>
+      <c r="G87" s="85"/>
     </row>
     <row r="88" spans="1:7" customFormat="1">
       <c r="A88" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="B88" s="83" t="s">
+      <c r="B88" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="C88" s="84" t="s">
+      <c r="C88" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="D88" s="84" t="s">
+      <c r="D88" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="E88" s="85" t="s">
+      <c r="E88" s="79" t="s">
         <v>63</v>
       </c>
       <c r="F88" s="47" t="s">
@@ -7377,27 +7409,27 @@
       <c r="A95" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="B95" s="77"/>
-      <c r="C95" s="78"/>
-      <c r="D95" s="78"/>
-      <c r="E95" s="78"/>
-      <c r="F95" s="78"/>
-      <c r="G95" s="79"/>
+      <c r="B95" s="83"/>
+      <c r="C95" s="84"/>
+      <c r="D95" s="84"/>
+      <c r="E95" s="84"/>
+      <c r="F95" s="84"/>
+      <c r="G95" s="85"/>
     </row>
     <row r="96" spans="1:7" customFormat="1" ht="15" customHeight="1">
       <c r="A96" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="B96" s="83" t="s">
+      <c r="B96" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="C96" s="84" t="s">
+      <c r="C96" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="D96" s="84" t="s">
+      <c r="D96" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="E96" s="85" t="s">
+      <c r="E96" s="79" t="s">
         <v>65</v>
       </c>
       <c r="F96" s="47" t="s">
@@ -7533,21 +7565,154 @@
       <c r="A104" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="B104" s="77"/>
-      <c r="C104" s="78"/>
-      <c r="D104" s="78"/>
-      <c r="E104" s="78"/>
-      <c r="F104" s="78"/>
-      <c r="G104" s="79"/>
-    </row>
-    <row r="105" spans="1:7" customFormat="1" ht="39.75" customHeight="1"/>
-    <row r="106" spans="1:7" customFormat="1" ht="12.75"/>
-    <row r="107" spans="1:7" customFormat="1" ht="12.75"/>
-    <row r="108" spans="1:7" customFormat="1" ht="12.75"/>
-    <row r="109" spans="1:7" customFormat="1" ht="50.25" customHeight="1"/>
-    <row r="110" spans="1:7" customFormat="1" ht="12.75"/>
-    <row r="111" spans="1:7" customFormat="1" ht="12.75"/>
-    <row r="112" spans="1:7" customFormat="1" ht="12.75"/>
+      <c r="B104" s="83"/>
+      <c r="C104" s="84"/>
+      <c r="D104" s="84"/>
+      <c r="E104" s="84"/>
+      <c r="F104" s="84"/>
+      <c r="G104" s="85"/>
+    </row>
+    <row r="105" spans="1:7" customFormat="1" ht="15" customHeight="1">
+      <c r="A105" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="B105" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="C105" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="D105" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="E105" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="F105" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="G105" s="48" t="str">
+        <f>IF(COUNTIF(F108:F111,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F108:F111,"Fail")&gt;0,"Fail",IF(COUNTIF(F108:F111,"")=0,"Pass","Not Executed")))</f>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A106" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B106" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106" s="81"/>
+      <c r="D106" s="81"/>
+      <c r="E106" s="81"/>
+      <c r="F106" s="81"/>
+      <c r="G106" s="82"/>
+    </row>
+    <row r="107" spans="1:7" customFormat="1">
+      <c r="A107" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B107" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C107" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D107" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E107" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="F107" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="G107" s="50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" customFormat="1" ht="150">
+      <c r="A108" s="51">
+        <v>1</v>
+      </c>
+      <c r="B108" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D108" s="53"/>
+      <c r="E108" s="53"/>
+      <c r="F108" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G108" s="55"/>
+    </row>
+    <row r="109" spans="1:7" customFormat="1" ht="15.75">
+      <c r="A109" s="51">
+        <v>2</v>
+      </c>
+      <c r="B109" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="C109" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="D109" s="53"/>
+      <c r="E109" s="53"/>
+      <c r="F109" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G109" s="55"/>
+    </row>
+    <row r="110" spans="1:7" customFormat="1" ht="45">
+      <c r="A110" s="51">
+        <v>3</v>
+      </c>
+      <c r="B110" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="C110" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="D110" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="E110" s="53"/>
+      <c r="F110" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G110" s="55"/>
+    </row>
+    <row r="111" spans="1:7" customFormat="1" ht="30">
+      <c r="A111" s="51">
+        <v>4</v>
+      </c>
+      <c r="B111" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C111" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="D111" s="53"/>
+      <c r="E111" s="53"/>
+      <c r="F111" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G111" s="55"/>
+    </row>
+    <row r="112" spans="1:7" s="57" customFormat="1">
+      <c r="A112" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B112" s="83"/>
+      <c r="C112" s="84"/>
+      <c r="D112" s="84"/>
+      <c r="E112" s="84"/>
+      <c r="F112" s="84"/>
+      <c r="G112" s="85"/>
+    </row>
     <row r="113" spans="1:8">
       <c r="A113"/>
       <c r="B113"/>
@@ -7673,6 +7838,7 @@
       <c r="E126"/>
       <c r="F126"/>
       <c r="G126"/>
+      <c r="H126" s="58"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127"/>
@@ -7682,7 +7848,6 @@
       <c r="E127"/>
       <c r="F127"/>
       <c r="G127"/>
-      <c r="H127" s="58"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128"/>
@@ -8044,7 +8209,7 @@
       <c r="F167"/>
       <c r="G167"/>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" ht="30.95" customHeight="1">
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
@@ -8053,7 +8218,7 @@
       <c r="F168"/>
       <c r="G168"/>
     </row>
-    <row r="169" spans="1:7" ht="30.95" customHeight="1">
+    <row r="169" spans="1:7">
       <c r="A169"/>
       <c r="B169"/>
       <c r="C169"/>
@@ -10591,14 +10756,13 @@
       <c r="F450"/>
       <c r="G450"/>
     </row>
-    <row r="451" spans="1:8">
-      <c r="A451"/>
-      <c r="B451"/>
-      <c r="C451"/>
-      <c r="D451"/>
-      <c r="E451"/>
-      <c r="F451"/>
-      <c r="G451"/>
+    <row r="451" spans="1:8" ht="15.75">
+      <c r="A451" s="22"/>
+      <c r="B451" s="41"/>
+      <c r="C451" s="41"/>
+      <c r="D451" s="59"/>
+      <c r="E451" s="60"/>
+      <c r="F451" s="61"/>
     </row>
     <row r="452" spans="1:8" ht="15.75">
       <c r="A452" s="22"/>
@@ -10616,13 +10780,14 @@
       <c r="E453" s="60"/>
       <c r="F453" s="61"/>
     </row>
-    <row r="454" spans="1:8" ht="15.75">
+    <row r="454" spans="1:8" s="42" customFormat="1" ht="15.75">
       <c r="A454" s="22"/>
       <c r="B454" s="41"/>
       <c r="C454" s="41"/>
       <c r="D454" s="59"/>
       <c r="E454" s="60"/>
       <c r="F454" s="61"/>
+      <c r="H454" s="21"/>
     </row>
     <row r="455" spans="1:8" s="42" customFormat="1" ht="15.75">
       <c r="A455" s="22"/>
@@ -15250,38 +15415,11 @@
       <c r="F968" s="61"/>
       <c r="H968" s="21"/>
     </row>
-    <row r="969" spans="1:8" s="42" customFormat="1" ht="15.75">
-      <c r="A969" s="22"/>
-      <c r="B969" s="41"/>
-      <c r="C969" s="41"/>
-      <c r="D969" s="59"/>
-      <c r="E969" s="60"/>
-      <c r="F969" s="61"/>
-      <c r="H969" s="21"/>
-    </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B48:G48"/>
+  <mergeCells count="40">
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="B112:G112"/>
     <mergeCell ref="B104:G104"/>
     <mergeCell ref="B65:G65"/>
     <mergeCell ref="B71:G71"/>
@@ -15298,9 +15436,30 @@
     <mergeCell ref="B72:E72"/>
     <mergeCell ref="B73:G73"/>
     <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B23:G23"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F452:F454 F459:F465 F678:F680 F668:F673 F470:F479 F484:F487 F492:F497 F502:F510 F515:F524 F529:F539 F544:F554 F570:F576 F598:F600 F559:F565 F581:F587 F592:F593 F605:F611 F616:F622 F638:F640 F627:F633 F645:F648 F653:F655 F660:F663 F21:F22 F27:F28 F99:F101 F33:F40 F52:F54 F60:F62 F45:F47 F75:F77 F83:F85 F91:F93 F69:F70" xr:uid="{59CD337E-F2A3-4555-8531-BBD5B92517F1}">
+    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F451:F453 F458:F464 F677:F679 F667:F672 F469:F478 F483:F486 F491:F496 F501:F509 F514:F523 F528:F538 F543:F553 F569:F575 F597:F599 F558:F564 F580:F586 F591:F592 F604:F610 F615:F621 F637:F639 F626:F632 F644:F647 F652:F654 F659:F662 F21:F22 F27:F28 F99:F101 F33:F40 F52:F54 F60:F62 F45:F47 F75:F77 F83:F85 F91:F93 F69:F70 F108:F110" xr:uid="{59CD337E-F2A3-4555-8531-BBD5B92517F1}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>
